--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori2/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori2/17/incorrect_predictions_17.xlsx
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,46 +537,46 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Hardware malfunction : Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>4-13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori2/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori2/17/incorrect_predictions_17.xlsx
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,46 +537,46 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hardware malfunction : Contact DJI Support to arrange for repairs</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
